--- a/tables/honda.xlsx
+++ b/tables/honda.xlsx
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12.66393952156387</v>
+        <v>12.58966382128435</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12.50884568395206</v>
+        <v>12.4303229938369</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.82585426725584</v>
+        <v>11.75161896901676</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11.53260267733141</v>
+        <v>11.46496241906536</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.36345769018841</v>
+        <v>11.29212502773594</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10.95989160443216</v>
+        <v>10.89561037326229</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10.71018002329792</v>
+        <v>10.64736338397367</v>
       </c>
     </row>
     <row r="9">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.70098472859472</v>
+        <v>10.63822202090464</v>
       </c>
     </row>
     <row r="10">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10.42890280906489</v>
+        <v>10.35848745427702</v>
       </c>
     </row>
     <row r="11">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10.37092919423295</v>
+        <v>10.31010230642767</v>
       </c>
     </row>
     <row r="12">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.36002079563088</v>
+        <v>10.29925788704342</v>
       </c>
     </row>
     <row r="13">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10.33593412532842</v>
+        <v>10.27105161155538</v>
       </c>
     </row>
     <row r="14">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10.04920737143605</v>
+        <v>9.986124748445297</v>
       </c>
     </row>
     <row r="15">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10.04531532278333</v>
+        <v>9.974351689900812</v>
       </c>
     </row>
     <row r="16">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10.00142962920913</v>
+        <v>9.942769905807822</v>
       </c>
     </row>
     <row r="17">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.975061326317856</v>
+        <v>9.916556256542231</v>
       </c>
     </row>
     <row r="18">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.826981347021201</v>
+        <v>9.765293719675253</v>
       </c>
     </row>
     <row r="19">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9.808001160923387</v>
+        <v>9.746432679285121</v>
       </c>
     </row>
     <row r="20">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.780004108060071</v>
+        <v>9.722643074976661</v>
       </c>
     </row>
     <row r="21">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.713118385453878</v>
+        <v>9.647535966120772</v>
       </c>
     </row>
     <row r="22">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.643699935717814</v>
+        <v>9.587138344848615</v>
       </c>
     </row>
     <row r="23">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.56222183121503</v>
+        <v>9.499622429376322</v>
       </c>
     </row>
     <row r="24">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.480429977047038</v>
+        <v>9.424825986338059</v>
       </c>
     </row>
     <row r="25">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.463341650975508</v>
+        <v>9.407837885586098</v>
       </c>
     </row>
     <row r="26">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.405940794845192</v>
+        <v>9.334556353247836</v>
       </c>
     </row>
     <row r="27">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.245950128701933</v>
+        <v>9.191721393687095</v>
       </c>
     </row>
     <row r="28">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9.205115393754113</v>
+        <v>9.142962981541482</v>
       </c>
     </row>
     <row r="29">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9.191238952187019</v>
+        <v>9.131068202049715</v>
       </c>
     </row>
     <row r="30">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.147862419936988</v>
+        <v>9.094208982462453</v>
       </c>
     </row>
     <row r="31">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.138931196398598</v>
+        <v>9.079102880716556</v>
       </c>
     </row>
     <row r="32">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.107232892108032</v>
+        <v>9.053817752252209</v>
       </c>
     </row>
     <row r="33">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9.082217131520192</v>
+        <v>9.025204666949469</v>
       </c>
     </row>
     <row r="34">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9.023398283469723</v>
+        <v>8.97047484481428</v>
       </c>
     </row>
     <row r="35">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8.896704767818521</v>
+        <v>8.835136286180255</v>
       </c>
     </row>
     <row r="36">
@@ -894,11 +894,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>installment</t>
+          <t>trilhão</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8.814082774402424</v>
+        <v>8.754227801525717</v>
       </c>
     </row>
     <row r="37">
@@ -907,11 +907,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>trilhão</t>
+          <t>installment</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8.809528497830838</v>
+        <v>8.75181700034751</v>
       </c>
     </row>
     <row r="38">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.804368908161647</v>
+        <v>8.72714985659643</v>
       </c>
     </row>
     <row r="39">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8.68782889757213</v>
+        <v>8.629169174170825</v>
       </c>
     </row>
     <row r="40">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8.681572044148929</v>
+        <v>8.624737845300993</v>
       </c>
     </row>
     <row r="41">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8.671938679014133</v>
+        <v>8.607705008716703</v>
       </c>
     </row>
     <row r="42">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8.568437081773132</v>
+        <v>8.518182051459224</v>
       </c>
     </row>
     <row r="43">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8.56581041374554</v>
+        <v>8.512039626760242</v>
       </c>
     </row>
     <row r="44">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8.486048313683424</v>
+        <v>8.43627650452156</v>
       </c>
     </row>
     <row r="45">
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>8.485641558377276</v>
+        <v>8.423661279670887</v>
       </c>
     </row>
     <row r="46">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8.447934255821844</v>
+        <v>8.382479912851919</v>
       </c>
     </row>
     <row r="47">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>8.410717110931643</v>
+        <v>8.357919902457382</v>
       </c>
     </row>
     <row r="48">
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8.390647142952869</v>
+        <v>8.333993973747255</v>
       </c>
     </row>
     <row r="49">
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8.383619952379577</v>
+        <v>8.328736306766084</v>
       </c>
     </row>
     <row r="50">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>8.369835419169792</v>
+        <v>8.317294840323454</v>
       </c>
     </row>
     <row r="51">
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8.369790722738671</v>
+        <v>8.300370933203837</v>
       </c>
     </row>
     <row r="52">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8.340671498692632</v>
+        <v>8.291752344008424</v>
       </c>
     </row>
     <row r="53">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8.340671498692632</v>
+        <v>8.291752344008424</v>
       </c>
     </row>
     <row r="54">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8.340671498692632</v>
+        <v>8.291752344008424</v>
       </c>
     </row>
     <row r="55">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8.306777105870264</v>
+        <v>8.254632367577043</v>
       </c>
     </row>
     <row r="56">
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8.285273489518385</v>
+        <v>8.23326373744578</v>
       </c>
     </row>
     <row r="57">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8.281733192134761</v>
+        <v>8.223228122359135</v>
       </c>
     </row>
     <row r="58">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>8.248060485992092</v>
+        <v>8.199684507292753</v>
       </c>
     </row>
     <row r="59">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8.213627895634177</v>
+        <v>8.159857108648881</v>
       </c>
     </row>
     <row r="60">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>e.preventdefault();</t>
+          <t>policial:</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>8.212596354679849</v>
+        <v>8.145229674866435</v>
       </c>
     </row>
     <row r="61">
@@ -1219,11 +1219,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>policial:</t>
+          <t>mercedes-amg</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.196683313359456</v>
+        <v>8.122550053886668</v>
       </c>
     </row>
     <row r="62">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>mercedes-amg</t>
+          <t>chave</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8.173860424594046</v>
+        <v>8.105351043471821</v>
       </c>
     </row>
     <row r="63">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>chave</t>
+          <t>formula</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8.171350513496556</v>
+        <v>8.077545798622118</v>
       </c>
     </row>
     <row r="64">
@@ -1258,11 +1258,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>formula</t>
+          <t>latin</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>8.136050868397744</v>
+        <v>8.012114031421884</v>
       </c>
     </row>
     <row r="65">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>latin</t>
+          <t>simultâneo</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8.064911239896142</v>
+        <v>8.001609175747667</v>
       </c>
     </row>
     <row r="66">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>8.052797479942512</v>
+        <v>7.989820524442502</v>
       </c>
     </row>
     <row r="67">
@@ -1297,11 +1297,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>simultâneo</t>
+          <t>e-tech</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8.04881656216627</v>
+        <v>7.966579914641791</v>
       </c>
     </row>
     <row r="68">
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>8.019585886302892</v>
+        <v>7.962932717097277</v>
       </c>
     </row>
     <row r="69">
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8.019585886302892</v>
+        <v>7.962932717097277</v>
       </c>
     </row>
     <row r="70">
@@ -1336,11 +1336,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>e-tech</t>
+          <t>apps</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8.01358063764699</v>
+        <v>7.878992211833748</v>
       </c>
     </row>
     <row r="71">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>para</t>
+          <t>judicial</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>7.933092349668469</v>
+        <v>7.875855892087755</v>
       </c>
     </row>
     <row r="72">
@@ -1362,11 +1362,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>judicial</t>
+          <t>alma</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7.930739537701249</v>
+        <v>7.871891368275729</v>
       </c>
     </row>
     <row r="73">
@@ -1375,11 +1375,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>apps</t>
+          <t>câmbio</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7.928764020995613</v>
+        <v>7.848880359453194</v>
       </c>
     </row>
     <row r="74">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>alma</t>
+          <t>para</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7.92376455530572</v>
+        <v>7.839400274453436</v>
       </c>
     </row>
     <row r="75">
@@ -1401,11 +1401,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>câmbio</t>
+          <t>povoado</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7.914920726815843</v>
+        <v>7.82970150706362</v>
       </c>
     </row>
     <row r="76">
@@ -1414,11 +1414,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>povoado</t>
+          <t>desta</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>7.881296676720272</v>
+        <v>7.808934433769358</v>
       </c>
     </row>
     <row r="77">
@@ -1427,11 +1427,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>desta</t>
+          <t>terreno</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7.876102496074829</v>
+        <v>7.801377319904669</v>
       </c>
     </row>
     <row r="78">
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7.857520646812486</v>
+        <v>7.78984484459802</v>
       </c>
     </row>
     <row r="79">
@@ -1453,11 +1453,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>terreno</t>
+          <t>modelos</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7.856881085294078</v>
+        <v>7.784015419682356</v>
       </c>
     </row>
     <row r="80">
@@ -1466,11 +1466,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>modelos</t>
+          <t>team</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.852279479706177</v>
+        <v>7.78363018460841</v>
       </c>
     </row>
     <row r="81">
@@ -1479,11 +1479,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>team</t>
+          <t>bernardes</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7.843800934745718</v>
+        <v>7.781482344916504</v>
       </c>
     </row>
     <row r="82">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>7.829622205592361</v>
+        <v>7.766382853026407</v>
       </c>
     </row>
     <row r="83">
@@ -1505,11 +1505,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>bernardes</t>
+          <t>girls</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7.82739104101721</v>
+        <v>7.765686646799692</v>
       </c>
     </row>
     <row r="84">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>botafogo</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7.819802567622541</v>
+        <v>7.757208185030899</v>
       </c>
     </row>
     <row r="85">
@@ -1531,11 +1531,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>botafogo</t>
+          <t>responderexcluir</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7.817174681947409</v>
+        <v>7.742290933831111</v>
       </c>
     </row>
     <row r="86">
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7.800143526496537</v>
+        <v>7.733623248650936</v>
       </c>
     </row>
     <row r="87">
@@ -1557,11 +1557,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>responderexcluir</t>
+          <t>publicidade:</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7.787968410929892</v>
+        <v>7.729009226180568</v>
       </c>
     </row>
     <row r="88">
@@ -1570,11 +1570,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>publicidade:</t>
+          <t>jardim</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7.781549805026904</v>
+        <v>7.699460935332496</v>
       </c>
     </row>
     <row r="89">
@@ -1583,11 +1583,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jardim</t>
+          <t>guidão</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7.768444763579788</v>
+        <v>7.695967437671437</v>
       </c>
     </row>
     <row r="90">
@@ -1596,11 +1596,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>guidão</t>
+          <t>barrocas:</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>7.759514075814776</v>
+        <v>7.687137755805813</v>
       </c>
     </row>
     <row r="91">
@@ -1609,11 +1609,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>barrocas:</t>
+          <t>resinados</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7.735697615124913</v>
+        <v>7.661500059739489</v>
       </c>
     </row>
     <row r="92">
@@ -1622,11 +1622,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>resinados</t>
+          <t>leclerc</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7.7067008919624</v>
+        <v>7.661500059739489</v>
       </c>
     </row>
     <row r="93">
@@ -1635,11 +1635,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>leclerc</t>
+          <t>cupid</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7.7067008919624</v>
+        <v>7.661500059739489</v>
       </c>
     </row>
     <row r="94">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>cupid</t>
+          <t>freio</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7.7067008919624</v>
+        <v>7.616105447207829</v>
       </c>
     </row>
     <row r="95">
@@ -1661,11 +1661,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>freio</t>
+          <t>curitiba</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7.683493821295339</v>
+        <v>7.607909545900529</v>
       </c>
     </row>
     <row r="96">
@@ -1674,11 +1674,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>curitiba</t>
+          <t>university</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>7.66672190125354</v>
+        <v>7.602224142930933</v>
       </c>
     </row>
     <row r="97">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>maringá</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7.652320311229118</v>
+        <v>7.590296293996258</v>
       </c>
     </row>
     <row r="98">
@@ -1700,11 +1700,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>maringá</t>
+          <t>quadro</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7.644298299983479</v>
+        <v>7.583618668655272</v>
       </c>
     </row>
     <row r="99">
@@ -1713,11 +1713,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>quadro</t>
+          <t>advance</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7.643923629213186</v>
+        <v>7.567846952819423</v>
       </c>
     </row>
     <row r="100">
@@ -1726,11 +1726,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>advance</t>
+          <t>else</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7.615653248875433</v>
+        <v>7.557068043356796</v>
       </c>
     </row>
     <row r="101">
@@ -1739,11 +1739,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>else</t>
+          <t>respostas</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7.612672034065774</v>
+        <v>7.541302960476765</v>
       </c>
     </row>
   </sheetData>

--- a/tables/honda.xlsx
+++ b/tables/honda.xlsx
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12.58966382128435</v>
+        <v>12.75508498653541</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12.4303229938369</v>
+        <v>12.60520273039429</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.75161896901676</v>
+        <v>11.91695015392993</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11.46496241906536</v>
+        <v>11.61560563478928</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.29212502773594</v>
+        <v>11.4509916839767</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10.89561037326229</v>
+        <v>11.03877262045586</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10.64736338397367</v>
+        <v>10.78726380409853</v>
       </c>
     </row>
     <row r="9">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.63822202090464</v>
+        <v>10.77800232861408</v>
       </c>
     </row>
     <row r="10">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10.35848745427702</v>
+        <v>10.51531115296638</v>
       </c>
     </row>
     <row r="11">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10.31010230642767</v>
+        <v>10.44557130397974</v>
       </c>
     </row>
     <row r="12">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.29925788704342</v>
+        <v>10.43458439496936</v>
       </c>
     </row>
     <row r="13">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10.27105161155538</v>
+        <v>10.41555298942679</v>
       </c>
     </row>
     <row r="14">
@@ -608,11 +608,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>universidade</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9.986124748445297</v>
+        <v>10.13239647167598</v>
       </c>
     </row>
     <row r="15">
@@ -621,11 +621,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>universidade</t>
+          <t>review</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.974351689900812</v>
+        <v>10.12661754707194</v>
       </c>
     </row>
     <row r="16">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9.942769905807822</v>
+        <v>10.07341236036338</v>
       </c>
     </row>
     <row r="17">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.916556256542231</v>
+        <v>10.04685427835768</v>
       </c>
     </row>
     <row r="18">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.765293719675253</v>
+        <v>9.902679690574724</v>
       </c>
     </row>
     <row r="19">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9.746432679285121</v>
+        <v>9.883553297966772</v>
       </c>
     </row>
     <row r="20">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.722643074976661</v>
+        <v>9.850393185671731</v>
       </c>
     </row>
     <row r="21">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.647535966120772</v>
+        <v>9.793596120185155</v>
       </c>
     </row>
     <row r="22">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.587138344848615</v>
+        <v>9.713107998918867</v>
       </c>
     </row>
     <row r="23">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.499622429376322</v>
+        <v>9.63903903476959</v>
       </c>
     </row>
     <row r="24">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.424825986338059</v>
+        <v>9.54866294648887</v>
       </c>
     </row>
     <row r="25">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.407837885586098</v>
+        <v>9.531451631562037</v>
       </c>
     </row>
     <row r="26">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.334556353247836</v>
+        <v>9.493538328044341</v>
       </c>
     </row>
     <row r="27">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.191721393687095</v>
+        <v>9.312495489420787</v>
       </c>
     </row>
     <row r="28">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9.142962981541482</v>
+        <v>9.281384085788048</v>
       </c>
     </row>
     <row r="29">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9.131068202049715</v>
+        <v>9.265075899914372</v>
       </c>
     </row>
     <row r="30">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.094208982462453</v>
+        <v>9.213701819465159</v>
       </c>
     </row>
     <row r="31">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.079102880716556</v>
+        <v>9.212347934723281</v>
       </c>
     </row>
     <row r="32">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.053817752252209</v>
+        <v>9.172779871003646</v>
       </c>
     </row>
     <row r="33">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9.025204666949469</v>
+        <v>9.152178472482532</v>
       </c>
     </row>
     <row r="34">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8.97047484481428</v>
+        <v>9.088341884216538</v>
       </c>
     </row>
     <row r="35">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8.835136286180255</v>
+        <v>8.972256904861906</v>
       </c>
     </row>
     <row r="36">
@@ -894,11 +894,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>trilhão</t>
+          <t>online</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8.754227801525717</v>
+        <v>8.899126228968946</v>
       </c>
     </row>
     <row r="37">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8.75181700034751</v>
+        <v>8.890490575428746</v>
       </c>
     </row>
     <row r="38">
@@ -920,11 +920,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>trilhão</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.72714985659643</v>
+        <v>8.877389287550917</v>
       </c>
     </row>
     <row r="39">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8.629169174170825</v>
+        <v>8.75981162872638</v>
       </c>
     </row>
     <row r="40">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8.624737845300993</v>
+        <v>8.751314631035166</v>
       </c>
     </row>
     <row r="41">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8.607705008716703</v>
+        <v>8.750761331968674</v>
       </c>
     </row>
     <row r="42">
@@ -972,11 +972,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>hier</t>
+          <t>cash</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8.518182051459224</v>
+        <v>8.631793815628216</v>
       </c>
     </row>
     <row r="43">
@@ -985,11 +985,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>cash</t>
+          <t>hier</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8.512039626760242</v>
+        <v>8.630106215660559</v>
       </c>
     </row>
     <row r="44">
@@ -998,11 +998,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>singles</t>
+          <t>best</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8.43627650452156</v>
+        <v>8.561699021322761</v>
       </c>
     </row>
     <row r="45">
@@ -1011,11 +1011,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>singles</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>8.423661279670887</v>
+        <v>8.54712447548952</v>
       </c>
     </row>
     <row r="46">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8.382479912851919</v>
+        <v>8.528254825024822</v>
       </c>
     </row>
     <row r="47">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>8.357919902457382</v>
+        <v>8.475505811643666</v>
       </c>
     </row>
     <row r="48">
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8.333993973747255</v>
+        <v>8.460167584092098</v>
       </c>
     </row>
     <row r="49">
@@ -1063,11 +1063,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>agência</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8.328736306766084</v>
+        <v>8.454977385019438</v>
       </c>
     </row>
     <row r="50">
@@ -1076,11 +1076,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>near</t>
+          <t>women</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>8.317294840323454</v>
+        <v>8.450968969352152</v>
       </c>
     </row>
     <row r="51">
@@ -1089,11 +1089,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>agência</t>
+          <t>near</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8.300370933203837</v>
+        <v>8.434309203608064</v>
       </c>
     </row>
     <row r="52">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8.291752344008424</v>
+        <v>8.400701348063654</v>
       </c>
     </row>
     <row r="53">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8.291752344008424</v>
+        <v>8.400701348063654</v>
       </c>
     </row>
     <row r="54">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8.291752344008424</v>
+        <v>8.400701348063654</v>
       </c>
     </row>
     <row r="55">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8.254632367577043</v>
+        <v>8.370765145022624</v>
       </c>
     </row>
     <row r="56">
@@ -1154,11 +1154,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ciências</t>
+          <t>mobile</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8.23326373744578</v>
+        <v>8.353526144174586</v>
       </c>
     </row>
     <row r="57">
@@ -1167,11 +1167,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>mobile</t>
+          <t>ciências</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8.223228122359135</v>
+        <v>8.349095883893293</v>
       </c>
     </row>
     <row r="58">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>8.199684507292753</v>
+        <v>8.307423791291287</v>
       </c>
     </row>
     <row r="59">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8.159857108648881</v>
+        <v>8.279611297516853</v>
       </c>
     </row>
     <row r="60">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>8.145229674866435</v>
+        <v>8.259823287634688</v>
       </c>
     </row>
     <row r="61">
@@ -1219,11 +1219,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>mercedes-amg</t>
+          <t>chave</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.122550053886668</v>
+        <v>8.252340020975337</v>
       </c>
     </row>
     <row r="62">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>chave</t>
+          <t>mercedes-amg</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8.105351043471821</v>
+        <v>8.236824591587913</v>
       </c>
     </row>
     <row r="63">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8.077545798622118</v>
+        <v>8.207843820437569</v>
       </c>
     </row>
     <row r="64">
@@ -1258,11 +1258,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>latin</t>
+          <t>free</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>8.012114031421884</v>
+        <v>8.130077988506406</v>
       </c>
     </row>
     <row r="65">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>simultâneo</t>
+          <t>latin</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8.001609175747667</v>
+        <v>8.129699940608166</v>
       </c>
     </row>
     <row r="66">
@@ -1284,11 +1284,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>simultâneo</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7.989820524442502</v>
+        <v>8.106745860295032</v>
       </c>
     </row>
     <row r="67">
@@ -1297,11 +1297,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>e-tech</t>
+          <t>sign</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>7.966579914641791</v>
+        <v>8.089106327442121</v>
       </c>
     </row>
     <row r="68">
@@ -1310,11 +1310,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>sign</t>
+          <t>toys</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>7.962932717097277</v>
+        <v>8.089106327442121</v>
       </c>
     </row>
     <row r="69">
@@ -1323,11 +1323,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>toys</t>
+          <t>e-tech</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>7.962932717097277</v>
+        <v>8.071256334223207</v>
       </c>
     </row>
     <row r="70">
@@ -1336,11 +1336,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>apps</t>
+          <t>para</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7.878992211833748</v>
+        <v>8.04806410661571</v>
       </c>
     </row>
     <row r="71">
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>7.875855892087755</v>
+        <v>7.998088554673823</v>
       </c>
     </row>
     <row r="72">
@@ -1362,11 +1362,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>alma</t>
+          <t>câmbio</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7.871891368275729</v>
+        <v>7.995960420383297</v>
       </c>
     </row>
     <row r="73">
@@ -1375,11 +1375,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>câmbio</t>
+          <t>apps</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7.848880359453194</v>
+        <v>7.989840182801707</v>
       </c>
     </row>
     <row r="74">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>para</t>
+          <t>alma</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7.839400274453436</v>
+        <v>7.987419367493444</v>
       </c>
     </row>
     <row r="75">
@@ -1401,11 +1401,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>povoado</t>
+          <t>desta</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7.82970150706362</v>
+        <v>7.958526010724043</v>
       </c>
     </row>
     <row r="76">
@@ -1414,11 +1414,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>desta</t>
+          <t>povoado</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>7.808934433769358</v>
+        <v>7.944610327227016</v>
       </c>
     </row>
     <row r="77">
@@ -1427,11 +1427,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>terreno</t>
+          <t>vila</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7.801377319904669</v>
+        <v>7.940567221088415</v>
       </c>
     </row>
     <row r="78">
@@ -1440,11 +1440,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>vila</t>
+          <t>modelos</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7.78984484459802</v>
+        <v>7.936047919024849</v>
       </c>
     </row>
     <row r="79">
@@ -1453,11 +1453,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>modelos</t>
+          <t>terreno</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7.784015419682356</v>
+        <v>7.924991065880609</v>
       </c>
     </row>
     <row r="80">
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.78363018460841</v>
+        <v>7.91763788247307</v>
       </c>
     </row>
     <row r="81">
@@ -1479,11 +1479,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bernardes</t>
+          <t>bateria</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7.781482344916504</v>
+        <v>7.907224707789334</v>
       </c>
     </row>
     <row r="82">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>bateria</t>
+          <t>botafogo</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>7.766382853026407</v>
+        <v>7.890760985726451</v>
       </c>
     </row>
     <row r="83">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7.765686646799692</v>
+        <v>7.886209491383607</v>
       </c>
     </row>
     <row r="84">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>botafogo</t>
+          <t>bernardes</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7.757208185030899</v>
+        <v>7.883726685603381</v>
       </c>
     </row>
     <row r="85">
@@ -1531,11 +1531,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>responderexcluir</t>
+          <t>abril</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7.742290933831111</v>
+        <v>7.881772129545135</v>
       </c>
     </row>
     <row r="86">
@@ -1544,11 +1544,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>abril</t>
+          <t>jardim</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7.733623248650936</v>
+        <v>7.853096447474448</v>
       </c>
     </row>
     <row r="87">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7.729009226180568</v>
+        <v>7.846023589465176</v>
       </c>
     </row>
     <row r="88">
@@ -1570,11 +1570,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jardim</t>
+          <t>responderexcluir</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7.699460935332496</v>
+        <v>7.84402032122125</v>
       </c>
     </row>
     <row r="89">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7.695967437671437</v>
+        <v>7.837493655396742</v>
       </c>
     </row>
     <row r="90">
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>7.687137755805813</v>
+        <v>7.795286564672823</v>
       </c>
     </row>
     <row r="91">
@@ -1609,11 +1609,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>resinados</t>
+          <t>freio</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7.661500059739489</v>
+        <v>7.766187685732398</v>
       </c>
     </row>
     <row r="92">
@@ -1622,11 +1622,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>leclerc</t>
+          <t>resinados</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7.661500059739489</v>
+        <v>7.762167900076141</v>
       </c>
     </row>
     <row r="93">
@@ -1635,11 +1635,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>cupid</t>
+          <t>leclerc</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7.661500059739489</v>
+        <v>7.762167900076141</v>
       </c>
     </row>
     <row r="94">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>freio</t>
+          <t>cupid</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7.616105447207829</v>
+        <v>7.762167900076141</v>
       </c>
     </row>
     <row r="95">
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7.607909545900529</v>
+        <v>7.738891930678356</v>
       </c>
     </row>
     <row r="96">
@@ -1674,11 +1674,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>quadro</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>7.602224142930933</v>
+        <v>7.717925269715486</v>
       </c>
     </row>
     <row r="97">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>maringá</t>
+          <t>university</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7.590296293996258</v>
+        <v>7.71379450178737</v>
       </c>
     </row>
     <row r="98">
@@ -1700,11 +1700,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>quadro</t>
+          <t>maringá</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7.583618668655272</v>
+        <v>7.710565436160969</v>
       </c>
     </row>
     <row r="99">
@@ -1713,11 +1713,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>advance</t>
+          <t>else</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7.567846952819423</v>
+        <v>7.680905003507607</v>
       </c>
     </row>
     <row r="100">
@@ -1726,11 +1726,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>else</t>
+          <t>advance</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7.557068043356796</v>
+        <v>7.674317483156556</v>
       </c>
     </row>
     <row r="101">
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7.541302960476765</v>
+        <v>7.66079579747947</v>
       </c>
     </row>
   </sheetData>
